--- a/financial_files/excel/AFLYY.xlsx
+++ b/financial_files/excel/AFLYY.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O111" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O111" headerRowCount="1">
   <autoFilter ref="A1:O111"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/AFLYY.xlsx
+++ b/financial_files/excel/AFLYY.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,44 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:R23" headerRowCount="1">
+  <autoFilter ref="A1:R23"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2003"/>
+    <tableColumn id="3" name="2004"/>
+    <tableColumn id="4" name="2005"/>
+    <tableColumn id="5" name="2006"/>
+    <tableColumn id="6" name="2007"/>
+    <tableColumn id="7" name="2008"/>
+    <tableColumn id="8" name="2009"/>
+    <tableColumn id="9" name="2010"/>
+    <tableColumn id="10" name="2011"/>
+    <tableColumn id="11" name="2012"/>
+    <tableColumn id="12" name="2013"/>
+    <tableColumn id="13" name="2014"/>
+    <tableColumn id="14" name="2015"/>
+    <tableColumn id="15" name="2016"/>
+    <tableColumn id="16" name="2017"/>
+    <tableColumn id="17" name="2018"/>
+    <tableColumn id="18" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6598,4 +6638,2042 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13700864000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15118873000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25043536000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25814681000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30565563000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>37464286000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31298956000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>28492537000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33130435000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33384514000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>34972603000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>30739827000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>27985839000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>26208861000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>30611834000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>29837315000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>30210000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-7514930000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>170343000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13255273000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1750903000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1633113000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1989130000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-403394000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2066486000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-74334000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-574803000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>150685000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>598027000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>498911000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1001055000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>29586000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1432309000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>952222000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>119870000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>122549000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2238786000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1444043000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1480795000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1798137000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1571802000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2888738000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>612903000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-1233596000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-723288000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>27127000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>180828000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>868143000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>152663000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>717861000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>384444000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14039000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2451000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-175462000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-308063000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-328477000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-557453000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>573107000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>795115000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>274895000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-22310000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1310959000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-240444000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-32680000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-310127000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>24852000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-254835000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-84444000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-7.19</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-5.43</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-8.449999999999999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>218182000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>216909000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>259091000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>284227000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>296183000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>307766000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>294710000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>294375000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>373880000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>295870000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>296035000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>296039000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>296063000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>349612000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>370586000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>427432000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>455334000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13615551000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15881127000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30598945000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31864019000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>35324503000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>47655280000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>37562663000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37686567000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>40629734000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>35065617000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>34823288000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>28657213000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>25419390000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>30032700000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>36150296000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>33716724000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>34150000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1722955000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1638989000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1630464000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1672360000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1466057000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2633650000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1741935000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1447507000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2334247000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1824908000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1571895000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1062236000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1637870000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>217292000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>332222000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2705715000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5367647000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10407652000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9417569000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9826490000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10736025000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5852480000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12512890000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8304348000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7409449000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6558904000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5579531000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3717865000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7669831000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7004734000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3215017000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3703333000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4348812000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5006127000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7941953000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9450060000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11141722000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15489130000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7409922000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7351425000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9685835000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4772966000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3141096000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-805179000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>297386000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>273207000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2771598000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2045506000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2554444000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1204104000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1471814000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2626649000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3196149000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3774834000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4027950000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1041775000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1082768000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1893408000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1116798000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2026027000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1247842000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2065359000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2361814000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4850888000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4320819000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4327778000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1175710000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1075980000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2596607000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-2788207000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-2937748000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-3195652000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-2483029000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1416554000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1605891000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-948819000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1289042000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1432799000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1392156000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-1960970000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-2885207000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-3084187000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-3635556000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1626</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0596</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.0598</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.09669999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.188</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.0287</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1061</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0358</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1034</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6564</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2257</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.1645</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.0896</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1627</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.0895</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.0634</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.1679</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.0253</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0124</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1127</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15.5218</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.5508</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0329</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1.9319</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.9958</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.3432</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-3.2013</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.5556</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8891</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.3948</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.4135</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.8154</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.3904</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.3209</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5864</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1898</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3901</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5216</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.0078</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.5072</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.3418</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-1.2563</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.3693</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.0813</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9.144600000000001</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.2619</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2488</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2223</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7846</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2168</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.7413</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-2.0393</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.7486</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.4101</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.8141</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.384</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6551</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1435</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.0538</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1092</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.9407</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.9241</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12.579</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.0519</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.0057</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-2.7316</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.7341</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.4157</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.3873</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1.2509</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.6397</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.4045</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.9038</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.3708</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.4402</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>28394000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>395834000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30042000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>407942000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>837086000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>832298000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1441254000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-2499322000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>287517000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>167979000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>736985000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-184957000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>673203000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>400844000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1965681000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1236632000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>692222000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>19.932</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23.0793</v>
+      </c>
+      <c r="D21" t="n">
+        <v>30.6531</v>
+      </c>
+      <c r="E21" t="n">
+        <v>33.2482</v>
+      </c>
+      <c r="F21" t="n">
+        <v>37.6176</v>
+      </c>
+      <c r="G21" t="n">
+        <v>50.3276</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25.143</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24.9729</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25.9062</v>
+      </c>
+      <c r="K21" t="n">
+        <v>16.1319</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10.6105</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-2.7198</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.0044</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.7814</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7.4789</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4.7855</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4843524320</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6373625440</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12741883260</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8451164850</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2656938150</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4698427350</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5043679200</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2862610100</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3099528330</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2803489330</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2226446400</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1603015200</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6946680000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4651069440</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4710300640</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.1647</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.8011</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.7969</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.1991</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-2.5002</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-2.2211</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1.7806</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-1.2384</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-10.105</v>
+      </c>
+      <c r="N23" t="n">
+        <v>17.321</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.9187</v>
+      </c>
+      <c r="P23" t="n">
+        <v>36.012</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.734</v>
+      </c>
+      <c r="R23" t="n">
+        <v>14.6181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-4.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-1.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-13.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>125.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>92.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>101.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>112.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-33.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-31.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>104.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>136.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>19.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-44.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>15.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>28.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3703333000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.55325632629215</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7.013470000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AIR FRANCE-KLM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AFLYY</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.airfranceklm.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2562302208</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>73131</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3.514793</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>